--- a/SuppXLS/Scen_DEM_HIGH.xlsx
+++ b/SuppXLS/Scen_DEM_HIGH.xlsx
@@ -5584,8 +5584,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -5641,7 +5641,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -5700,7 +5700,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5719,7 +5719,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -5736,8 +5736,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5846,22 +5846,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{528214B4-FD62-4CB4-ABE2-C1ED502C1783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77BBC2A3-5361-49CF-B5A3-1BBEDDB7B1DF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
